--- a/StructureDefinition-profile-RelatedPerson.xlsx
+++ b/StructureDefinition-profile-RelatedPerson.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.7786236-06:00</t>
+    <t>2026-02-09T22:05:43.2974805-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-profile-RelatedPerson.xlsx
+++ b/StructureDefinition-profile-RelatedPerson.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="267">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.2974805-06:00</t>
+    <t>2026-02-17T14:42:26.8880352-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -756,10 +756,43 @@
     <t>RelatedPerson.communication.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
   </si>
   <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>RelatedPerson.communication.extension:communication</t>
+  </si>
+  <si>
+    <t>communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-RelatedPerson.communication|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for RelatedPerson.communication from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A language which may be used to communicate with the related person about the patient's health.</t>
+  </si>
+  <si>
+    <t>Element `RelatedPerson.communication` has is mapped to FHIR R4 element `RelatedPerson.communication`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>RelatedPerson.communication.modifierExtension</t>
@@ -1119,7 +1152,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM27"/>
+  <dimension ref="A1:AM28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1128,9 +1161,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="40.74609375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="13.453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1138,7 +1171,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="20.94921875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="92.77734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3738,7 +3771,7 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -3760,14 +3793,12 @@
         <v>131</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>132</v>
+        <v>238</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>76</v>
@@ -3804,19 +3835,17 @@
         <v>76</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="AC24" s="2"/>
       <c r="AD24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>76</v>
+        <v>241</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -3831,7 +3860,7 @@
         <v>136</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>236</v>
+        <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
@@ -3842,14 +3871,16 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="D25" t="s" s="2">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -3862,26 +3893,24 @@
         <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>131</v>
+        <v>245</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>76</v>
       </c>
@@ -3929,7 +3958,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -3938,13 +3967,13 @@
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>76</v>
+        <v>249</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -3955,45 +3984,45 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>76</v>
+        <v>251</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>248</v>
+        <v>134</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>249</v>
+        <v>140</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -4018,13 +4047,13 @@
         <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>76</v>
@@ -4042,22 +4071,22 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>250</v>
+        <v>128</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4068,10 +4097,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4079,7 +4108,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>85</v>
@@ -4094,19 +4123,19 @@
         <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>76</v>
@@ -4131,13 +4160,13 @@
         <v>76</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>76</v>
@@ -4155,10 +4184,10 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>85</v>
@@ -4170,12 +4199,125 @@
         <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM27" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="P28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q28" s="2"/>
+      <c r="R28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/StructureDefinition-profile-RelatedPerson.xlsx
+++ b/StructureDefinition-profile-RelatedPerson.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8880352-06:00</t>
+    <t>2026-02-20T11:59:20.9297222-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/RelatedPerson|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/RelatedPerson</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -778,7 +778,7 @@
     <t>communication</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-RelatedPerson.communication|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-RelatedPerson.communication}
 </t>
   </si>
   <si>
@@ -1171,7 +1171,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="92.77734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="78.3671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-profile-RelatedPerson.xlsx
+++ b/StructureDefinition-profile-RelatedPerson.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="257">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.9297222-06:00</t>
+    <t>2026-02-21T13:36:54.3348931-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/RelatedPerson</t>
+    <t>http://hl7.org/fhir/StructureDefinition/RelatedPerson|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -756,43 +756,10 @@
     <t>RelatedPerson.communication.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>RelatedPerson.communication.extension:communication</t>
-  </si>
-  <si>
-    <t>communication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-RelatedPerson.communication}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for RelatedPerson.communication from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A language which may be used to communicate with the related person about the patient's health.</t>
-  </si>
-  <si>
-    <t>Element `RelatedPerson.communication` has is mapped to FHIR R4 element `RelatedPerson.communication`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
   </si>
   <si>
     <t>RelatedPerson.communication.modifierExtension</t>
@@ -1152,7 +1119,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM28"/>
+  <dimension ref="A1:AM27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1161,9 +1128,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.74609375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="40.74609375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1171,7 +1138,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="78.3671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="20.94921875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3771,7 +3738,7 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -3793,12 +3760,14 @@
         <v>131</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N24" s="2"/>
+      <c r="N24" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>76</v>
@@ -3835,17 +3804,19 @@
         <v>76</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="AC24" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -3860,7 +3831,7 @@
         <v>136</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>76</v>
+        <v>236</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
@@ -3871,16 +3842,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>76</v>
+        <v>241</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -3893,24 +3862,26 @@
         <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>245</v>
+        <v>131</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>76</v>
       </c>
@@ -3958,7 +3929,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -3967,13 +3938,13 @@
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>249</v>
+        <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -3984,45 +3955,45 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>251</v>
+        <v>76</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>134</v>
+        <v>248</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>140</v>
+        <v>249</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -4047,13 +4018,13 @@
         <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>76</v>
@@ -4071,22 +4042,22 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>128</v>
+        <v>250</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4097,10 +4068,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4108,7 +4079,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>85</v>
@@ -4123,19 +4094,19 @@
         <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>76</v>
@@ -4160,13 +4131,13 @@
         <v>76</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>76</v>
@@ -4184,10 +4155,10 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>85</v>
@@ -4199,125 +4170,12 @@
         <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="P28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q28" s="2"/>
-      <c r="R28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM28" t="s" s="2">
         <v>76</v>
       </c>
     </row>
